--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561960.9473532715</v>
+        <v>557795.8484700373</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6534713.651117924</v>
+        <v>6534713.651117922</v>
       </c>
     </row>
     <row r="9">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E5" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.066753047649846</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.262548922260277</v>
+        <v>2.066753047649844</v>
       </c>
     </row>
     <row r="6">
@@ -983,17 +983,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.262548922260277</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,67 +1056,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.262548922260277</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.262548922260277</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.262548922260277</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1299,20 +1299,20 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>95.63937608431651</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>123.9636109289947</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>144.4084514418549</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>28.54711041251937</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.6554371447624</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>137.6384805602074</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>173.4164943363247</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>170.1167790360037</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>310.2200921513534</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.69925279848788</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>23.92542949176416</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.2732274219857</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>373.6379449502012</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>4.79028954553867</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>123.3718309863016</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>249.4515336438234</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>230.7875301326561</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T24" t="n">
         <v>124.6872412559295</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>59.34999475563476</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2496,7 +2496,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I25" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U25" t="n">
-        <v>126.3432804206127</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.14218788030801</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>28.51059712949215</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T27" t="n">
         <v>124.6872412559295</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.69731283314</v>
+        <v>206.1289023856652</v>
       </c>
       <c r="U28" t="n">
         <v>275.6011387506063</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>164.4369222547118</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>40.99245864542603</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H29" t="n">
-        <v>266.343371731269</v>
+        <v>232.5655628537978</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.54651292818661</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T29" t="n">
         <v>209.3624689967422</v>
@@ -2851,7 +2851,7 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T30" t="n">
         <v>124.6872412559295</v>
@@ -2955,19 +2955,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>141.3715730503847</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T31" t="n">
         <v>239.69731283314</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>87.57483470827866</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>199.3265531980479</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>230.7875301326561</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T33" t="n">
         <v>124.6872412559295</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>3.736574875332485</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.69731283314</v>
+        <v>206.1289023856652</v>
       </c>
       <c r="U34" t="n">
         <v>275.6011387506063</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>21.42506113591538</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.54651292818661</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>192.2410172044689</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T36" t="n">
         <v>124.6872412559295</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>135.6472837053797</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H37" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>3.736574875332034</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.69731283314</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.0743295211842</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>239.4252466410595</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.54651292818661</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T39" t="n">
         <v>124.6872412559295</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.7056318987545</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>130.6508024230171</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.69731283314</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.54651292818661</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>181.2052930453119</v>
+        <v>230.7875301326579</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T42" t="n">
         <v>124.6872412559295</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>130.6508024230158</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.7692587245709</v>
       </c>
       <c r="T43" t="n">
         <v>239.69731283314</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>376.1320581990299</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.343371731269</v>
+        <v>213.0384325370133</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.54651292818661</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T44" t="n">
         <v>209.3624689967422</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.51400215146347</v>
+        <v>43.51400215146345</v>
       </c>
       <c r="T45" t="n">
         <v>124.6872412559295</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0639424294076</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.69731283314</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>123.1533309826244</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.89633687662097</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.644137216720341</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C5" t="n">
-        <v>5.644137216720341</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D5" t="n">
-        <v>5.644137216720341</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E5" t="n">
-        <v>2.348633254841273</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J5" t="n">
-        <v>1.160310701713751</v>
+        <v>1.160310701713748</v>
       </c>
       <c r="K5" t="n">
-        <v>2.508138455589632</v>
+        <v>2.508138455589628</v>
       </c>
       <c r="L5" t="n">
-        <v>4.180237967355347</v>
+        <v>4.180237967355343</v>
       </c>
       <c r="M5" t="n">
-        <v>6.040770853278586</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N5" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O5" t="n">
-        <v>9.716685196678942</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P5" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R5" t="n">
         <v>13.05019568904111</v>
@@ -4606,13 +4606,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W5" t="n">
-        <v>12.23514514047848</v>
+        <v>12.23514514047847</v>
       </c>
       <c r="X5" t="n">
-        <v>8.939641178599409</v>
+        <v>12.23514514047847</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.644137216720341</v>
+        <v>10.14751579941802</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75469172716204</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F6" t="n">
-        <v>6.459187765282972</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55650787565989</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I6" t="n">
         <v>0.4561956203818616</v>
@@ -4649,49 +4649,49 @@
         <v>0.9918165824064465</v>
       </c>
       <c r="K6" t="n">
-        <v>2.894945101355216</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L6" t="n">
-        <v>4.125896112219478</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M6" t="n">
-        <v>5.562357881689803</v>
+        <v>4.574690899292686</v>
       </c>
       <c r="N6" t="n">
-        <v>7.036838519872611</v>
+        <v>6.049171537475494</v>
       </c>
       <c r="O6" t="n">
-        <v>8.385700240635234</v>
+        <v>7.398033258238116</v>
       </c>
       <c r="P6" t="n">
-        <v>9.468280689297153</v>
+        <v>8.480613706900035</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.69820412233483</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R6" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S6" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T6" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U6" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.05019568904111</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C7" t="n">
-        <v>13.05019568904111</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D7" t="n">
-        <v>10.14751579941803</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E7" t="n">
-        <v>6.852011837538958</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J7" t="n">
         <v>0.5970352923692028</v>
@@ -4731,46 +4731,46 @@
         <v>1.149238072150546</v>
       </c>
       <c r="L7" t="n">
-        <v>1.855867513507673</v>
+        <v>2.387589272026917</v>
       </c>
       <c r="M7" t="n">
-        <v>5.085790946545347</v>
+        <v>5.61751270506459</v>
       </c>
       <c r="N7" t="n">
-        <v>8.315714379583021</v>
+        <v>8.847436138102264</v>
       </c>
       <c r="O7" t="n">
-        <v>11.5456378126207</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P7" t="n">
-        <v>12.12048177054018</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q7" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W7" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X7" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="8">
@@ -4862,19 +4862,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="E10" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="F10" t="n">
+        <v>104.7923756428305</v>
+      </c>
+      <c r="G10" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,49 +4965,49 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>51.00047617709629</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>59.69371861623731</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>68.85952388578045</v>
+        <v>135.1765645645015</v>
       </c>
       <c r="N10" t="n">
-        <v>77.80738679259596</v>
+        <v>144.1244274713171</v>
       </c>
       <c r="O10" t="n">
-        <v>86.07218644061874</v>
+        <v>152.3892271193398</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>159.4611910064825</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="X10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1017.864239579285</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C11" t="n">
-        <v>579.7217667627087</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>143.8119819371532</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>143.8119819371532</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
@@ -5041,7 +5041,7 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228019</v>
@@ -5077,16 +5077,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1849.01926465316</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1444.163810064193</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1444.163810064193</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1444.163810064193</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>1022.068262654341</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>849.5065511375664</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>683.6285583390891</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>513.8705545898263</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>337.1635005515825</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>172.4223201641009</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895473</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>828.1746199579902</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1693.826598731346</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1693.826598731346</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="X13" t="n">
-        <v>1448.434844064758</v>
+        <v>1441.30655205922</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.015173378866</v>
+        <v>1213.886881373329</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228015</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5360,13 +5360,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5433,40 +5433,40 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>295.9524490360514</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>419.8232506543494</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928788</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2076.872270709337</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
         <v>1798.48563875808</v>
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1355.033554032792</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="C17" t="n">
-        <v>916.8910812162151</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.868684372189</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1526.868684372189</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1355.033554032792</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1355.033554032792</v>
+        <v>2006.507579226823</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>852.4895006216354</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C19" t="n">
-        <v>679.9277891048604</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D19" t="n">
-        <v>514.0497963063831</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E19" t="n">
-        <v>344.2917925571204</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M19" t="n">
-        <v>550.4276429928788</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.532494457436</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.140739790848</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.7210691049565</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1122.013229783223</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C20" t="n">
-        <v>683.870756966646</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D20" t="n">
-        <v>683.870756966646</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>683.870756966646</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>683.870756966646</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W20" t="n">
-        <v>1122.013229783223</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X20" t="n">
-        <v>1122.013229783223</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1122.013229783223</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4735194517291</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C22" t="n">
-        <v>861.4735194517291</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5955266532518</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E22" t="n">
-        <v>525.8375229039891</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>349.1304688657453</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>184.3892884782638</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>52.04522785757965</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,46 +5916,46 @@
         <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>831.5726843696448</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M22" t="n">
-        <v>1415.75375978796</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N22" t="n">
-        <v>1985.511474749494</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1685.067474329294</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.711808856608</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.292138170716</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2017.693000806164</v>
+        <v>1830.962508169417</v>
       </c>
       <c r="C23" t="n">
-        <v>1579.550527989587</v>
+        <v>1830.962508169417</v>
       </c>
       <c r="D23" t="n">
-        <v>1143.640743164032</v>
+        <v>1578.991262064545</v>
       </c>
       <c r="E23" t="n">
-        <v>709.865998322327</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="F23" t="n">
-        <v>281.9985687315347</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G23" t="n">
-        <v>48.87985142582144</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H23" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I23" t="n">
         <v>122.6176114159378</v>
@@ -5992,49 +5992,49 @@
         <v>285.8514025294307</v>
       </c>
       <c r="K23" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133959</v>
       </c>
       <c r="L23" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019347</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N23" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O23" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.9247983283</v>
       </c>
       <c r="P23" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q23" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R23" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S23" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="T23" t="n">
-        <v>2443.992571291072</v>
+        <v>2193.57945823559</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.992571291072</v>
+        <v>2193.57945823559</v>
       </c>
       <c r="V23" t="n">
-        <v>2443.992571291072</v>
+        <v>1830.962508169417</v>
       </c>
       <c r="W23" t="n">
-        <v>2443.992571291072</v>
+        <v>1830.962508169417</v>
       </c>
       <c r="X23" t="n">
-        <v>2443.992571291072</v>
+        <v>1830.962508169417</v>
       </c>
       <c r="Y23" t="n">
-        <v>2443.992571291072</v>
+        <v>1830.962508169417</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>248.1944395051918</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8106011213534</v>
+        <v>164.8106011213535</v>
       </c>
       <c r="G24" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368235</v>
       </c>
       <c r="H24" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I24" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J24" t="n">
-        <v>181.5301595233808</v>
+        <v>181.5301595233809</v>
       </c>
       <c r="K24" t="n">
-        <v>288.7508436324146</v>
+        <v>347.6962101248523</v>
       </c>
       <c r="L24" t="n">
-        <v>512.1816048303893</v>
+        <v>571.1269713228271</v>
       </c>
       <c r="M24" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926888</v>
       </c>
       <c r="N24" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O24" t="n">
         <v>1285.381570195347</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.761139503991</v>
+        <v>986.8326363576703</v>
       </c>
       <c r="C25" t="n">
-        <v>920.1994279872162</v>
+        <v>814.2709248408952</v>
       </c>
       <c r="D25" t="n">
         <v>754.3214351887389</v>
@@ -6144,55 +6144,55 @@
         <v>111.069124049345</v>
       </c>
       <c r="I25" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="J25" t="n">
-        <v>196.4528223035572</v>
+        <v>109.8731371388675</v>
       </c>
       <c r="K25" t="n">
-        <v>296.6835271271045</v>
+        <v>210.1038419624148</v>
       </c>
       <c r="L25" t="n">
-        <v>843.1542028453232</v>
+        <v>539.0117042834565</v>
       </c>
       <c r="M25" t="n">
-        <v>1437.871093756473</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N25" t="n">
-        <v>1569.888578443075</v>
+        <v>1708.004883038853</v>
       </c>
       <c r="O25" t="n">
-        <v>2111.497342426017</v>
+        <v>2249.613647021795</v>
       </c>
       <c r="P25" t="n">
-        <v>2353.953967598669</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q25" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R25" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S25" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="T25" t="n">
-        <v>2443.992571291072</v>
+        <v>2201.874073479821</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.373096118736</v>
+        <v>1923.489084842845</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.417587989166</v>
+        <v>1923.489084842845</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.391183575458</v>
+        <v>1651.462680429137</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.99942890887</v>
+        <v>1406.070925762549</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.579758222978</v>
+        <v>1178.651255076657</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1360.929334917631</v>
+        <v>1784.574283500451</v>
       </c>
       <c r="C26" t="n">
-        <v>922.7868621010539</v>
+        <v>1346.431810683874</v>
       </c>
       <c r="D26" t="n">
-        <v>922.7868621010539</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="E26" t="n">
-        <v>489.0121172593491</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F26" t="n">
-        <v>61.1446876685568</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="G26" t="n">
-        <v>61.1446876685568</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="H26" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I26" t="n">
-        <v>122.617611415938</v>
+        <v>122.6176114159381</v>
       </c>
       <c r="J26" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294307</v>
       </c>
       <c r="K26" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133959</v>
       </c>
       <c r="L26" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019347</v>
       </c>
       <c r="M26" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N26" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O26" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.9247983283</v>
       </c>
       <c r="P26" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q26" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.992571291072</v>
+        <v>2415.193988331991</v>
       </c>
       <c r="T26" t="n">
-        <v>2443.992571291072</v>
+        <v>2203.71674692114</v>
       </c>
       <c r="U26" t="n">
-        <v>2184.927252927287</v>
+        <v>2203.71674692114</v>
       </c>
       <c r="V26" t="n">
-        <v>2184.927252927287</v>
+        <v>2203.71674692114</v>
       </c>
       <c r="W26" t="n">
-        <v>1780.07179833832</v>
+        <v>2203.71674692114</v>
       </c>
       <c r="X26" t="n">
-        <v>1360.929334917631</v>
+        <v>1784.574283500451</v>
       </c>
       <c r="Y26" t="n">
-        <v>1360.929334917631</v>
+        <v>1784.574283500451</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>248.1944395051918</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8106011213534</v>
+        <v>164.8106011213535</v>
       </c>
       <c r="G27" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368235</v>
       </c>
       <c r="H27" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I27" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309426</v>
       </c>
       <c r="K27" t="n">
-        <v>347.696210124852</v>
+        <v>288.750843632414</v>
       </c>
       <c r="L27" t="n">
-        <v>571.1269713228266</v>
+        <v>512.1816048303889</v>
       </c>
       <c r="M27" t="n">
-        <v>831.8601310926882</v>
+        <v>772.9147646002506</v>
       </c>
       <c r="N27" t="n">
-        <v>1099.494121765927</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O27" t="n">
-        <v>1344.326936687784</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P27" t="n">
         <v>1481.881489012384</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.761139503991</v>
+        <v>733.7846135285804</v>
       </c>
       <c r="C28" t="n">
-        <v>920.1994279872162</v>
+        <v>561.2229020118053</v>
       </c>
       <c r="D28" t="n">
-        <v>754.3214351887389</v>
+        <v>395.344909213328</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5634314394762</v>
+        <v>225.5869054640653</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8563774012324</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1453244422349</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="H28" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I28" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="J28" t="n">
-        <v>196.4528223035572</v>
+        <v>109.8731371388675</v>
       </c>
       <c r="K28" t="n">
-        <v>571.4419816982401</v>
+        <v>410.7509103331988</v>
       </c>
       <c r="L28" t="n">
-        <v>1117.912657416459</v>
+        <v>539.0117042834565</v>
       </c>
       <c r="M28" t="n">
-        <v>1253.145681146696</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N28" t="n">
-        <v>1385.163165833297</v>
+        <v>1708.004883038853</v>
       </c>
       <c r="O28" t="n">
-        <v>1733.913978187119</v>
+        <v>2249.613647021795</v>
       </c>
       <c r="P28" t="n">
-        <v>2185.761192734337</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q28" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S28" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.874073479819</v>
+        <v>2235.781558780301</v>
       </c>
       <c r="U28" t="n">
-        <v>1923.489084842843</v>
+        <v>1957.396570143325</v>
       </c>
       <c r="V28" t="n">
-        <v>1923.489084842843</v>
+        <v>1670.441062013755</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.391183575458</v>
+        <v>1398.414657600047</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.99942890887</v>
+        <v>1153.022902933459</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.579758222978</v>
+        <v>925.6032322475676</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>758.755611516316</v>
+        <v>1121.372561582491</v>
       </c>
       <c r="C29" t="n">
-        <v>758.755611516316</v>
+        <v>683.2300887659148</v>
       </c>
       <c r="D29" t="n">
-        <v>758.755611516316</v>
+        <v>683.2300887659148</v>
       </c>
       <c r="E29" t="n">
-        <v>758.755611516316</v>
+        <v>683.2300887659148</v>
       </c>
       <c r="F29" t="n">
-        <v>717.3490876320473</v>
+        <v>683.2300887659148</v>
       </c>
       <c r="G29" t="n">
-        <v>317.9135602452851</v>
+        <v>283.7945613791526</v>
       </c>
       <c r="H29" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I29" t="n">
         <v>122.6176114159378</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294305</v>
       </c>
       <c r="K29" t="n">
         <v>530.4965414133957</v>
       </c>
       <c r="L29" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019345</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N29" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O29" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P29" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q29" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R29" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S29" t="n">
-        <v>2405.056699646439</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="T29" t="n">
-        <v>2193.579458235588</v>
+        <v>2193.57945823559</v>
       </c>
       <c r="U29" t="n">
-        <v>1934.514139871803</v>
+        <v>1934.514139871805</v>
       </c>
       <c r="V29" t="n">
-        <v>1571.897189805629</v>
+        <v>1934.514139871805</v>
       </c>
       <c r="W29" t="n">
-        <v>1167.041735216663</v>
+        <v>1529.658685282838</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.041735216663</v>
+        <v>1529.658685282838</v>
       </c>
       <c r="Y29" t="n">
-        <v>758.755611516316</v>
+        <v>1121.372561582491</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G30" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H30" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I30" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309426</v>
       </c>
       <c r="K30" t="n">
-        <v>347.696210124852</v>
+        <v>288.750843632414</v>
       </c>
       <c r="L30" t="n">
-        <v>571.1269713228266</v>
+        <v>512.1816048303889</v>
       </c>
       <c r="M30" t="n">
-        <v>831.8601310926882</v>
+        <v>772.9147646002506</v>
       </c>
       <c r="N30" t="n">
         <v>1040.54875527349</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.8771282280989</v>
+        <v>694.9358703327277</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3154167113238</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="D31" t="n">
-        <v>361.4374239128465</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="E31" t="n">
-        <v>191.6794201635838</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="F31" t="n">
-        <v>191.6794201635838</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G31" t="n">
-        <v>48.87985142582144</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H31" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I31" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J31" t="n">
-        <v>171.7876455387694</v>
+        <v>109.8731371388675</v>
       </c>
       <c r="K31" t="n">
-        <v>546.7768049334522</v>
+        <v>210.1038419624148</v>
       </c>
       <c r="L31" t="n">
-        <v>1093.247480651671</v>
+        <v>650.9886774940272</v>
       </c>
       <c r="M31" t="n">
-        <v>1228.480504381908</v>
+        <v>786.2217012242642</v>
       </c>
       <c r="N31" t="n">
-        <v>1360.49798906851</v>
+        <v>1360.497989068511</v>
       </c>
       <c r="O31" t="n">
-        <v>1902.106753051452</v>
+        <v>1902.106753051453</v>
       </c>
       <c r="P31" t="n">
-        <v>2353.953967598669</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q31" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S31" t="n">
-        <v>2443.992571291072</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="T31" t="n">
-        <v>2201.874073479819</v>
+        <v>2057.972573896818</v>
       </c>
       <c r="U31" t="n">
-        <v>1923.489084842843</v>
+        <v>1779.587585259842</v>
       </c>
       <c r="V31" t="n">
-        <v>1636.533576713274</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="W31" t="n">
-        <v>1364.507172299565</v>
+        <v>1220.605672716564</v>
       </c>
       <c r="X31" t="n">
-        <v>1119.115417632978</v>
+        <v>975.2139180499762</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.695746947086</v>
+        <v>886.7544890517149</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2017.693000806164</v>
+        <v>1784.574283500451</v>
       </c>
       <c r="C32" t="n">
-        <v>1579.550527989587</v>
+        <v>1346.431810683874</v>
       </c>
       <c r="D32" t="n">
-        <v>1143.640743164032</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="E32" t="n">
-        <v>709.865998322327</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F32" t="n">
-        <v>281.9985687315347</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="G32" t="n">
-        <v>281.9985687315347</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="H32" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I32" t="n">
-        <v>122.617611415938</v>
+        <v>122.6176114159381</v>
       </c>
       <c r="J32" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294308</v>
       </c>
       <c r="K32" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133959</v>
       </c>
       <c r="L32" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019347</v>
       </c>
       <c r="M32" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N32" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O32" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.9247983283</v>
       </c>
       <c r="P32" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q32" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R32" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="T32" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.992571291072</v>
+        <v>1985.914236225752</v>
       </c>
       <c r="Y32" t="n">
-        <v>2443.992571291072</v>
+        <v>1985.914236225752</v>
       </c>
     </row>
     <row r="33">
@@ -6767,28 +6767,28 @@
         <v>248.1944395051918</v>
       </c>
       <c r="F33" t="n">
-        <v>164.8106011213534</v>
+        <v>164.8106011213535</v>
       </c>
       <c r="G33" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368235</v>
       </c>
       <c r="H33" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I33" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J33" t="n">
-        <v>122.5847930309434</v>
+        <v>122.5847930309426</v>
       </c>
       <c r="K33" t="n">
-        <v>288.7508436324146</v>
+        <v>288.750843632414</v>
       </c>
       <c r="L33" t="n">
-        <v>512.1816048303893</v>
+        <v>512.1816048303889</v>
       </c>
       <c r="M33" t="n">
-        <v>772.9147646002509</v>
+        <v>772.9147646002506</v>
       </c>
       <c r="N33" t="n">
         <v>1040.54875527349</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.8771282280989</v>
+        <v>733.7846135285804</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3154167113238</v>
+        <v>561.2229020118053</v>
       </c>
       <c r="D34" t="n">
-        <v>361.4374239128465</v>
+        <v>395.344909213328</v>
       </c>
       <c r="E34" t="n">
-        <v>357.6631058569551</v>
+        <v>225.5869054640653</v>
       </c>
       <c r="F34" t="n">
-        <v>180.9560518187113</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="G34" t="n">
-        <v>180.9560518187113</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="H34" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I34" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="J34" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K34" t="n">
-        <v>210.1038419624147</v>
+        <v>296.6835271271047</v>
       </c>
       <c r="L34" t="n">
-        <v>539.0117042834548</v>
+        <v>424.9443210773625</v>
       </c>
       <c r="M34" t="n">
-        <v>1133.728595194605</v>
+        <v>1019.661211988512</v>
       </c>
       <c r="N34" t="n">
-        <v>1708.004883038851</v>
+        <v>1593.937499832759</v>
       </c>
       <c r="O34" t="n">
-        <v>2249.613647021793</v>
+        <v>2135.546263815701</v>
       </c>
       <c r="P34" t="n">
-        <v>2353.953967598669</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q34" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R34" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S34" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.874073479819</v>
+        <v>2235.781558780301</v>
       </c>
       <c r="U34" t="n">
-        <v>1923.489084842843</v>
+        <v>1957.396570143325</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.533576713274</v>
+        <v>1670.441062013755</v>
       </c>
       <c r="W34" t="n">
-        <v>1364.507172299565</v>
+        <v>1398.414657600047</v>
       </c>
       <c r="X34" t="n">
-        <v>1119.115417632978</v>
+        <v>1153.022902933459</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.695746947086</v>
+        <v>925.6032322475676</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1784.574283500451</v>
+        <v>1806.215759395315</v>
       </c>
       <c r="C35" t="n">
-        <v>1346.431810683874</v>
+        <v>1368.073286578738</v>
       </c>
       <c r="D35" t="n">
-        <v>910.5220258583186</v>
+        <v>932.1635017531826</v>
       </c>
       <c r="E35" t="n">
-        <v>476.7472810166137</v>
+        <v>498.3887569114777</v>
       </c>
       <c r="F35" t="n">
-        <v>48.87985142582143</v>
+        <v>70.52132732068549</v>
       </c>
       <c r="G35" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H35" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I35" t="n">
-        <v>122.6176114159376</v>
+        <v>122.6176114159378</v>
       </c>
       <c r="J35" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294305</v>
       </c>
       <c r="K35" t="n">
-        <v>530.4965414133952</v>
+        <v>530.4965414133957</v>
       </c>
       <c r="L35" t="n">
-        <v>834.0004692019337</v>
+        <v>834.0004692019345</v>
       </c>
       <c r="M35" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N35" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O35" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P35" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2323.180958383276</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R35" t="n">
-        <v>2443.992571291071</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S35" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T35" t="n">
-        <v>2405.056699646438</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U35" t="n">
-        <v>2405.056699646438</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="V35" t="n">
-        <v>2405.056699646438</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.056699646438</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="X35" t="n">
-        <v>2210.873853985358</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="Y35" t="n">
-        <v>2210.873853985358</v>
+        <v>2232.515329880222</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G36" t="n">
-        <v>80.47543658368231</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H36" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I36" t="n">
-        <v>84.30923179960389</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J36" t="n">
-        <v>181.5301595233808</v>
+        <v>181.5301595233809</v>
       </c>
       <c r="K36" t="n">
-        <v>347.696210124852</v>
+        <v>347.6962101248523</v>
       </c>
       <c r="L36" t="n">
-        <v>571.1269713228266</v>
+        <v>571.1269713228271</v>
       </c>
       <c r="M36" t="n">
-        <v>831.8601310926882</v>
+        <v>831.8601310926888</v>
       </c>
       <c r="N36" t="n">
-        <v>1099.494121765927</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O36" t="n">
-        <v>1344.326936687784</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P36" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q36" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R36" t="n">
         <v>1677.126711301534</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.1028101722075</v>
+        <v>699.8771282281002</v>
       </c>
       <c r="C37" t="n">
-        <v>523.5410986554324</v>
+        <v>527.3154167113252</v>
       </c>
       <c r="D37" t="n">
-        <v>357.6631058569551</v>
+        <v>390.2979584230628</v>
       </c>
       <c r="E37" t="n">
-        <v>357.6631058569551</v>
+        <v>390.2979584230628</v>
       </c>
       <c r="F37" t="n">
-        <v>180.9560518187113</v>
+        <v>213.590904384819</v>
       </c>
       <c r="G37" t="n">
-        <v>180.9560518187113</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H37" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I37" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J37" t="n">
-        <v>109.8731371388674</v>
+        <v>109.8731371388675</v>
       </c>
       <c r="K37" t="n">
-        <v>210.1038419624147</v>
+        <v>210.1038419624148</v>
       </c>
       <c r="L37" t="n">
-        <v>539.0117042834544</v>
+        <v>338.3646359126726</v>
       </c>
       <c r="M37" t="n">
-        <v>1133.728595194604</v>
+        <v>933.0815268238226</v>
       </c>
       <c r="N37" t="n">
-        <v>1708.004883038851</v>
+        <v>1507.357814668069</v>
       </c>
       <c r="O37" t="n">
-        <v>2249.613647021793</v>
+        <v>2048.966578651011</v>
       </c>
       <c r="P37" t="n">
-        <v>2353.953967598669</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q37" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R37" t="n">
-        <v>2443.992571291071</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.21825323518</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T37" t="n">
-        <v>2198.099755423928</v>
+        <v>2201.874073479821</v>
       </c>
       <c r="U37" t="n">
-        <v>1919.714766786952</v>
+        <v>1923.489084842845</v>
       </c>
       <c r="V37" t="n">
-        <v>1632.759258657382</v>
+        <v>1636.533576713275</v>
       </c>
       <c r="W37" t="n">
-        <v>1360.732854243674</v>
+        <v>1364.507172299567</v>
       </c>
       <c r="X37" t="n">
-        <v>1115.341099577086</v>
+        <v>1119.115417632979</v>
       </c>
       <c r="Y37" t="n">
-        <v>887.9214288911946</v>
+        <v>891.6957469470874</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1784.574283500451</v>
+        <v>1598.550537385476</v>
       </c>
       <c r="C38" t="n">
-        <v>1346.431810683874</v>
+        <v>1160.4080645689</v>
       </c>
       <c r="D38" t="n">
-        <v>910.5220258583186</v>
+        <v>724.498279743344</v>
       </c>
       <c r="E38" t="n">
-        <v>476.7472810166137</v>
+        <v>290.7235349016392</v>
       </c>
       <c r="F38" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="G38" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H38" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I38" t="n">
-        <v>122.6176114159376</v>
+        <v>122.6176114159378</v>
       </c>
       <c r="J38" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294305</v>
       </c>
       <c r="K38" t="n">
-        <v>530.4965414133952</v>
+        <v>530.4965414133956</v>
       </c>
       <c r="L38" t="n">
-        <v>834.0004692019337</v>
+        <v>834.0004692019344</v>
       </c>
       <c r="M38" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N38" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O38" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P38" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2323.180958383276</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R38" t="n">
-        <v>2443.992571291071</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S38" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T38" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="U38" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="V38" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.056699646438</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="X38" t="n">
-        <v>2405.056699646438</v>
+        <v>2024.850107870384</v>
       </c>
       <c r="Y38" t="n">
-        <v>1996.770575946091</v>
+        <v>2024.850107870384</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G39" t="n">
-        <v>80.47543658368231</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H39" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I39" t="n">
-        <v>48.87985142582143</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J39" t="n">
-        <v>146.1007791495983</v>
+        <v>122.5847930309426</v>
       </c>
       <c r="K39" t="n">
-        <v>312.2668297510696</v>
+        <v>288.750843632414</v>
       </c>
       <c r="L39" t="n">
-        <v>535.6975909490443</v>
+        <v>512.1816048303889</v>
       </c>
       <c r="M39" t="n">
-        <v>796.4307507189059</v>
+        <v>772.9147646002506</v>
       </c>
       <c r="N39" t="n">
         <v>1040.54875527349</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>561.2229020118053</v>
+        <v>699.8771282281002</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2229020118053</v>
+        <v>527.3154167113252</v>
       </c>
       <c r="D40" t="n">
         <v>395.344909213328</v>
       </c>
       <c r="E40" t="n">
-        <v>225.5869054640652</v>
+        <v>225.5869054640653</v>
       </c>
       <c r="F40" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="G40" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H40" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I40" t="n">
-        <v>48.87985142582143</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J40" t="n">
-        <v>196.4528223035572</v>
+        <v>109.8731371388675</v>
       </c>
       <c r="K40" t="n">
-        <v>571.4419816982401</v>
+        <v>210.1038419624148</v>
       </c>
       <c r="L40" t="n">
-        <v>1117.912657416459</v>
+        <v>756.5745176806336</v>
       </c>
       <c r="M40" t="n">
-        <v>1479.956978743356</v>
+        <v>1351.291408591783</v>
       </c>
       <c r="N40" t="n">
-        <v>1611.974463429958</v>
+        <v>1925.56769643603</v>
       </c>
       <c r="O40" t="n">
-        <v>1733.913978187119</v>
+        <v>2249.613647021795</v>
       </c>
       <c r="P40" t="n">
-        <v>2185.761192734336</v>
+        <v>2353.953967598671</v>
       </c>
       <c r="Q40" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R40" t="n">
-        <v>2443.992571291071</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S40" t="n">
-        <v>2300.091071708068</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T40" t="n">
-        <v>2057.972573896816</v>
+        <v>2201.874073479821</v>
       </c>
       <c r="U40" t="n">
-        <v>1779.58758525984</v>
+        <v>1923.489084842845</v>
       </c>
       <c r="V40" t="n">
-        <v>1492.63207713027</v>
+        <v>1636.533576713275</v>
       </c>
       <c r="W40" t="n">
-        <v>1220.605672716562</v>
+        <v>1364.507172299567</v>
       </c>
       <c r="X40" t="n">
-        <v>975.2139180499744</v>
+        <v>1119.115417632979</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.7942473640826</v>
+        <v>891.6957469470874</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1591.401345274179</v>
+        <v>1784.574283500451</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.258872457603</v>
+        <v>1346.431810683874</v>
       </c>
       <c r="D41" t="n">
-        <v>717.3490876320473</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="E41" t="n">
-        <v>717.3490876320473</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F41" t="n">
-        <v>717.3490876320473</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="G41" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="H41" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I41" t="n">
-        <v>122.617611415938</v>
+        <v>122.6176114159381</v>
       </c>
       <c r="J41" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294307</v>
       </c>
       <c r="K41" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133959</v>
       </c>
       <c r="L41" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019347</v>
       </c>
       <c r="M41" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N41" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O41" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.9247983283</v>
       </c>
       <c r="P41" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q41" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R41" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S41" t="n">
-        <v>2405.056699646439</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="T41" t="n">
-        <v>2193.579458235588</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.543808694869</v>
+        <v>2210.873853985358</v>
       </c>
       <c r="V41" t="n">
-        <v>2010.543808694869</v>
+        <v>2210.873853985358</v>
       </c>
       <c r="W41" t="n">
-        <v>2010.543808694869</v>
+        <v>2210.873853985358</v>
       </c>
       <c r="X41" t="n">
-        <v>1591.401345274179</v>
+        <v>2210.873853985358</v>
       </c>
       <c r="Y41" t="n">
-        <v>1591.401345274179</v>
+        <v>2210.873853985358</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>248.1944395051918</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8106011213534</v>
+        <v>164.8106011213535</v>
       </c>
       <c r="G42" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368235</v>
       </c>
       <c r="H42" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I42" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J42" t="n">
-        <v>181.5301595233808</v>
+        <v>181.5301595233809</v>
       </c>
       <c r="K42" t="n">
-        <v>347.696210124852</v>
+        <v>347.6962101248523</v>
       </c>
       <c r="L42" t="n">
-        <v>571.1269713228266</v>
+        <v>571.1269713228271</v>
       </c>
       <c r="M42" t="n">
-        <v>831.8601310926882</v>
+        <v>831.8601310926888</v>
       </c>
       <c r="N42" t="n">
-        <v>1099.494121765927</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O42" t="n">
-        <v>1344.326936687784</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P42" t="n">
-        <v>1540.826855504822</v>
+        <v>1540.826855504823</v>
       </c>
       <c r="Q42" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R42" t="n">
         <v>1677.126711301534</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.8771282280989</v>
+        <v>864.6938740819904</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3154167113238</v>
+        <v>692.1321625652154</v>
       </c>
       <c r="D43" t="n">
-        <v>395.344909213328</v>
+        <v>692.1321625652154</v>
       </c>
       <c r="E43" t="n">
-        <v>225.5869054640652</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="F43" t="n">
-        <v>48.87985142582144</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G43" t="n">
-        <v>48.87985142582144</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H43" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I43" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="J43" t="n">
-        <v>196.4528223035572</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K43" t="n">
-        <v>546.7768049334522</v>
+        <v>571.4419816982403</v>
       </c>
       <c r="L43" t="n">
-        <v>1093.247480651671</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M43" t="n">
-        <v>1228.480504381908</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N43" t="n">
-        <v>1360.49798906851</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O43" t="n">
-        <v>1902.106753051452</v>
+        <v>1733.913978187121</v>
       </c>
       <c r="P43" t="n">
-        <v>2353.953967598669</v>
+        <v>2185.761192734339</v>
       </c>
       <c r="Q43" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S43" t="n">
-        <v>2443.992571291072</v>
+        <v>2363.417562478376</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.874073479819</v>
+        <v>2121.299064667123</v>
       </c>
       <c r="U43" t="n">
-        <v>1923.489084842843</v>
+        <v>1842.914076030147</v>
       </c>
       <c r="V43" t="n">
-        <v>1636.533576713274</v>
+        <v>1555.958567900578</v>
       </c>
       <c r="W43" t="n">
-        <v>1364.507172299565</v>
+        <v>1283.932163486869</v>
       </c>
       <c r="X43" t="n">
-        <v>1119.115417632978</v>
+        <v>1283.932163486869</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.695746947086</v>
+        <v>1056.512492800977</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1571.897189805629</v>
+        <v>1571.897189805632</v>
       </c>
       <c r="C44" t="n">
-        <v>1133.754716989053</v>
+        <v>1133.754716989055</v>
       </c>
       <c r="D44" t="n">
-        <v>697.8449321634971</v>
+        <v>697.8449321634994</v>
       </c>
       <c r="E44" t="n">
-        <v>697.8449321634971</v>
+        <v>264.0701873217945</v>
       </c>
       <c r="F44" t="n">
-        <v>697.8449321634971</v>
+        <v>264.0701873217945</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9135602452851</v>
+        <v>264.0701873217945</v>
       </c>
       <c r="H44" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I44" t="n">
         <v>122.6176114159378</v>
@@ -7651,49 +7651,49 @@
         <v>285.8514025294307</v>
       </c>
       <c r="K44" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133958</v>
       </c>
       <c r="L44" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019347</v>
       </c>
       <c r="M44" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812896</v>
       </c>
       <c r="N44" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O44" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.9247983283</v>
       </c>
       <c r="P44" t="n">
-        <v>2115.49114781043</v>
+        <v>2115.491147810432</v>
       </c>
       <c r="Q44" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383279</v>
       </c>
       <c r="R44" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S44" t="n">
-        <v>2405.056699646439</v>
+        <v>2405.056699646441</v>
       </c>
       <c r="T44" t="n">
-        <v>2193.579458235588</v>
+        <v>2193.57945823559</v>
       </c>
       <c r="U44" t="n">
-        <v>1934.514139871803</v>
+        <v>1934.514139871805</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.897189805629</v>
+        <v>1571.897189805632</v>
       </c>
       <c r="W44" t="n">
-        <v>1571.897189805629</v>
+        <v>1571.897189805632</v>
       </c>
       <c r="X44" t="n">
-        <v>1571.897189805629</v>
+        <v>1571.897189805632</v>
       </c>
       <c r="Y44" t="n">
-        <v>1571.897189805629</v>
+        <v>1571.897189805632</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>248.1944395051918</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8106011213534</v>
+        <v>164.8106011213535</v>
       </c>
       <c r="G45" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368235</v>
       </c>
       <c r="H45" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I45" t="n">
-        <v>84.30923179960391</v>
+        <v>84.30923179960396</v>
       </c>
       <c r="J45" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309426</v>
       </c>
       <c r="K45" t="n">
-        <v>347.696210124852</v>
+        <v>288.750843632414</v>
       </c>
       <c r="L45" t="n">
-        <v>571.1269713228266</v>
+        <v>512.1816048303889</v>
       </c>
       <c r="M45" t="n">
-        <v>831.8601310926882</v>
+        <v>772.9147646002506</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.494121765927</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O45" t="n">
-        <v>1344.326936687784</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P45" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q45" t="n">
         <v>1613.236480910291</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1030.571866880468</v>
+        <v>853.864812842224</v>
       </c>
       <c r="C46" t="n">
-        <v>858.0101553636927</v>
+        <v>681.3031013254489</v>
       </c>
       <c r="D46" t="n">
-        <v>692.1321625652154</v>
+        <v>515.4251085269716</v>
       </c>
       <c r="E46" t="n">
-        <v>522.3741588159527</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="F46" t="n">
         <v>345.6671047777089</v>
@@ -7800,58 +7800,58 @@
         <v>180.9560518187113</v>
       </c>
       <c r="H46" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="I46" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582147</v>
       </c>
       <c r="J46" t="n">
-        <v>196.4528223035572</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K46" t="n">
-        <v>296.6835271271045</v>
+        <v>571.4419816982403</v>
       </c>
       <c r="L46" t="n">
-        <v>843.1542028453232</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M46" t="n">
-        <v>978.38722657556</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N46" t="n">
-        <v>1552.663514419806</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O46" t="n">
-        <v>2094.272278402749</v>
+        <v>1733.913978187121</v>
       </c>
       <c r="P46" t="n">
-        <v>2198.612598979625</v>
+        <v>2185.761192734339</v>
       </c>
       <c r="Q46" t="n">
-        <v>2426.193797186282</v>
+        <v>2426.193797186284</v>
       </c>
       <c r="R46" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="S46" t="n">
-        <v>2300.091071708069</v>
+        <v>2443.992571291074</v>
       </c>
       <c r="T46" t="n">
-        <v>2057.972573896816</v>
+        <v>2201.874073479821</v>
       </c>
       <c r="U46" t="n">
-        <v>2057.972573896816</v>
+        <v>2077.476769456968</v>
       </c>
       <c r="V46" t="n">
-        <v>1771.017065767247</v>
+        <v>1790.521261327399</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.990661353538</v>
+        <v>1518.49485691369</v>
       </c>
       <c r="X46" t="n">
-        <v>1253.598906686951</v>
+        <v>1273.103102247103</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.390485599455</v>
+        <v>1045.683431561211</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9976434165627448</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.531562699662754</v>
+        <v>0.6222042310422697</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,22 +8379,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5370926853729738</v>
       </c>
       <c r="M7" t="n">
         <v>2.509981579681935</v>
       </c>
       <c r="N7" t="n">
-        <v>2.52787594901773</v>
+        <v>2.527875949017728</v>
       </c>
       <c r="O7" t="n">
-        <v>2.583959521204308</v>
+        <v>2.583959521204306</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5370926853729738</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638102</v>
+        <v>0.9116767238303112</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>141.4680432173443</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6.525705103702592</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,10 +9102,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>93.97993254278316</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>410.7470639734272</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>70.75030430845845</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>323.2928365343466</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>202.6738064351353</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>139.511418783612</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>202.6738064351353</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>229.1023208047084</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.53990747464847</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>315.7818601831866</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>202.6738064351338</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.2195789960547</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>202.6738064351334</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>202.6738064351348</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>229.1023208047079</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>204.1479149783877</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>252.6194725316644</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>229.1023208047093</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>229.1023208047093</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>156.9104733525705</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>18.77402585779841</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>30.49849916615064</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>28.28813805503963</v>
       </c>
       <c r="E5" t="n">
-        <v>26.17444847102748</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>21.52200224723448</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.68848986422212</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9407135410828169</v>
+        <v>2.13650941569325</v>
       </c>
     </row>
     <row r="6">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>327.9493792105678</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>42.73835744761504</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.057009085482548</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>139.6775016064189</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23500,7 +23500,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>386.403928373963</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.5478253185807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>102.18627129542</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.1862712954198</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>244.8342597504787</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>93.98317031198968</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.2011797333093</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.1683390918426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>32.23443698533191</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>30.56531751314185</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.67404415257576</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>119.56600613362</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>182.0991533334766</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>164.6536419802385</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.54651292818661</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4746651801473</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>104.8692181148578</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T25" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>149.2578583299936</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H26" t="n">
-        <v>254.201183850961</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.54651292818661</v>
+        <v>10.03591579869443</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>33.56841044747486</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>104.8692181148596</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>382.5962966494583</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>33.77780887747119</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.69236937902289</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>137.5706392707542</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>222.7100215820108</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H32" t="n">
-        <v>35.55584159861286</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.54651292818661</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3624689967422</v>
@@ -24982,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.3238488364376</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.0639424294076</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I34" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>33.56841044747486</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4411721128946</v>
+        <v>374.0161109769792</v>
       </c>
       <c r="H35" t="n">
         <v>266.343371731269</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4746651801473</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>222.7100215820135</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.57192916511283</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I37" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.7259097118411</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>211.9622452588744</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>184.1635086538248</v>
       </c>
       <c r="G38" t="n">
         <v>395.4411721128946</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T38" t="n">
         <v>209.3624689967422</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.194800633042746</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>33.5684104474754</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I40" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.54651292818657</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U41" t="n">
-        <v>75.26937213483546</v>
+        <v>25.68713504748939</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33.56841044747668</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4624845871731</v>
+        <v>62.69322586260219</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>19.30911391386468</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>53.30493919425564</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728832</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6011387506063</v>
+        <v>152.4478077679818</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.2491371024118</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>358786.6985316916</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>358786.6985316917</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>358786.6985316917</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>358786.6985316917</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>358786.6985316916</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>358786.6985316916</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>358786.6985316917</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358786.6985316918</v>
+        <v>358786.6985316919</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366369.2430228543</v>
+        <v>366369.2430228542</v>
       </c>
       <c r="C2" t="n">
-        <v>367074.7306509147</v>
+        <v>367074.7306509145</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="E2" t="n">
-        <v>220216.5998211444</v>
+        <v>220216.5998211443</v>
       </c>
       <c r="F2" t="n">
-        <v>220216.5998211443</v>
+        <v>220216.5998211442</v>
       </c>
       <c r="G2" t="n">
-        <v>220216.5998211443</v>
+        <v>220216.5998211442</v>
       </c>
       <c r="H2" t="n">
         <v>220216.5998211443</v>
       </c>
       <c r="I2" t="n">
-        <v>226276.6924568299</v>
+        <v>226276.6924568301</v>
       </c>
       <c r="J2" t="n">
         <v>226276.69245683</v>
       </c>
       <c r="K2" t="n">
-        <v>226276.6924568299</v>
+        <v>226276.6924568301</v>
       </c>
       <c r="L2" t="n">
+        <v>226276.6924568301</v>
+      </c>
+      <c r="M2" t="n">
         <v>226276.69245683</v>
       </c>
-      <c r="M2" t="n">
-        <v>226276.6924568299</v>
-      </c>
       <c r="N2" t="n">
-        <v>226276.6924568299</v>
+        <v>226276.69245683</v>
       </c>
       <c r="O2" t="n">
-        <v>226276.6924568299</v>
+        <v>226276.6924568301</v>
       </c>
       <c r="P2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568301</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18012.50673044208</v>
+        <v>18012.50673044257</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>839.675691024283</v>
+        <v>839.6756910241314</v>
       </c>
       <c r="L3" t="n">
-        <v>9630.733667017968</v>
+        <v>9630.733667017907</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>298385.9621344163</v>
@@ -26429,37 +26429,37 @@
         <v>19185.36025012662</v>
       </c>
       <c r="F4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="G4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="H4" t="n">
         <v>19185.36025012661</v>
       </c>
       <c r="I4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983607</v>
       </c>
       <c r="J4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983607</v>
       </c>
       <c r="K4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983606</v>
       </c>
       <c r="L4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983607</v>
       </c>
       <c r="M4" t="n">
-        <v>19852.22248983604</v>
+        <v>19852.22248983606</v>
       </c>
       <c r="N4" t="n">
-        <v>19852.22248983604</v>
+        <v>19852.22248983606</v>
       </c>
       <c r="O4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983606</v>
       </c>
       <c r="P4" t="n">
-        <v>19852.22248983605</v>
+        <v>19852.22248983606</v>
       </c>
     </row>
     <row r="5">
@@ -26487,31 +26487,31 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563894</v>
       </c>
       <c r="J5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563894</v>
       </c>
       <c r="K5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563893</v>
       </c>
       <c r="L5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563894</v>
       </c>
       <c r="M5" t="n">
-        <v>47683.36020563889</v>
+        <v>47683.36020563893</v>
       </c>
       <c r="N5" t="n">
-        <v>47683.36020563889</v>
+        <v>47683.36020563893</v>
       </c>
       <c r="O5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563894</v>
       </c>
       <c r="P5" t="n">
-        <v>47683.3602056389</v>
+        <v>47683.36020563894</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34010.92671102146</v>
+        <v>33979.01999351977</v>
       </c>
       <c r="C6" t="n">
-        <v>31326.40701091029</v>
+        <v>31297.01989208028</v>
       </c>
       <c r="D6" t="n">
-        <v>6167.50553798084</v>
+        <v>6167.505537980898</v>
       </c>
       <c r="E6" t="n">
-        <v>-357505.3511946017</v>
+        <v>-358059.2316378239</v>
       </c>
       <c r="F6" t="n">
-        <v>154980.1583613798</v>
+        <v>154426.2779181579</v>
       </c>
       <c r="G6" t="n">
-        <v>154980.1583613799</v>
+        <v>154426.2779181579</v>
       </c>
       <c r="H6" t="n">
-        <v>154980.1583613799</v>
+        <v>154426.2779181579</v>
       </c>
       <c r="I6" t="n">
-        <v>140728.6030309129</v>
+        <v>140196.3657756751</v>
       </c>
       <c r="J6" t="n">
-        <v>158741.1097613551</v>
+        <v>158208.8725061176</v>
       </c>
       <c r="K6" t="n">
-        <v>157901.4340703307</v>
+        <v>157369.1968150936</v>
       </c>
       <c r="L6" t="n">
-        <v>149110.3760943371</v>
+        <v>148578.1388390998</v>
       </c>
       <c r="M6" t="n">
-        <v>21986.20537823963</v>
+        <v>21453.96812300229</v>
       </c>
       <c r="N6" t="n">
-        <v>158741.109761355</v>
+        <v>158208.8725061176</v>
       </c>
       <c r="O6" t="n">
-        <v>158741.109761355</v>
+        <v>158208.8725061177</v>
       </c>
       <c r="P6" t="n">
-        <v>158741.109761355</v>
+        <v>158208.8725061177</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="J3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="K3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="L3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="M3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="N3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="O3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
       <c r="P3" t="n">
-        <v>483.2418863309454</v>
+        <v>483.2418863309457</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26801,37 +26801,37 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227684</v>
       </c>
       <c r="J4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227684</v>
       </c>
       <c r="K4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227683</v>
       </c>
       <c r="L4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227684</v>
       </c>
       <c r="M4" t="n">
-        <v>610.9981428227678</v>
+        <v>610.9981428227683</v>
       </c>
       <c r="N4" t="n">
-        <v>610.9981428227678</v>
+        <v>610.9981428227683</v>
       </c>
       <c r="O4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227684</v>
       </c>
       <c r="P4" t="n">
-        <v>610.9981428227679</v>
+        <v>610.9981428227684</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.53995823772425</v>
+        <v>16.5399582377247</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>38.05245412526707</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.9162484608338</v>
+        <v>20.91624846083437</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922259688</v>
       </c>
       <c r="L4" t="n">
-        <v>38.05245412526707</v>
+        <v>38.05245412526683</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144066</v>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
         <v>38.05245412526707</v>
@@ -27703,16 +27703,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>89.91666160405553</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>79.28745107773972</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>81.65185921816891</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H6" t="n">
-        <v>38.00044053909289</v>
+        <v>38.38933637062632</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T6" t="n">
         <v>128.8537753079323</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5728047847957</v>
+        <v>171.3102558625354</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27776,22 +27776,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D7" t="n">
-        <v>161.3455597797657</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>164.7978747895098</v>
       </c>
       <c r="F7" t="n">
-        <v>171.6774345756011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H7" t="n">
-        <v>135.1979190266826</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I7" t="n">
         <v>87.62897272389382</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S7" t="n">
         <v>157.5652879271376</v>
@@ -27836,7 +27836,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>266.4324872788445</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
-        <v>47.39342735147601</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>131.670169027508</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>146.0340017035184</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>243.1682919906331</v>
+        <v>201.8532889431057</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H23" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I23" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J23" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K23" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L23" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M23" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O23" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P23" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R23" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S23" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T23" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U23" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H24" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I24" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J24" t="n">
-        <v>98.2029572967443</v>
+        <v>98.20295729674437</v>
       </c>
       <c r="K24" t="n">
-        <v>108.3037213222564</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L24" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M24" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N24" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O24" t="n">
-        <v>247.3058736584414</v>
+        <v>187.7650994236556</v>
       </c>
       <c r="P24" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R24" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S24" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T24" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H25" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I25" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J25" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K25" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L25" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M25" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N25" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O25" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P25" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R25" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S25" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T25" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H26" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I26" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K26" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M26" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N26" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O26" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P26" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R26" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S26" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T26" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H27" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I27" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J27" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K27" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L27" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N27" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470706</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R27" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S27" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T27" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H28" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I28" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J28" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K28" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L28" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M28" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O28" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P28" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R28" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S28" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T28" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H29" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I29" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J29" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K29" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L29" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M29" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N29" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O29" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P29" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R29" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S29" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T29" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U29" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H30" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I30" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J30" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K30" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L30" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M30" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N30" t="n">
-        <v>210.796590081618</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O30" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P30" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R30" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S30" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T30" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H31" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I31" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J31" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L31" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M31" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N31" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O31" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P31" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R31" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S31" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T31" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H32" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I32" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J32" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K32" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L32" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M32" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N32" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O32" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P32" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R32" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S32" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T32" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U32" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H33" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J33" t="n">
-        <v>38.66218306195904</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L33" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M33" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N33" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O33" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P33" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R33" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S33" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T33" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H34" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I34" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J34" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K34" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L34" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M34" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N34" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O34" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P34" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R34" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S34" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T34" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H35" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I35" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J35" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K35" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L35" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M35" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N35" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O35" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P35" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R35" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S35" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T35" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U35" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H36" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J36" t="n">
-        <v>98.2029572967443</v>
+        <v>98.20295729674437</v>
       </c>
       <c r="K36" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L36" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M36" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N36" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O36" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P36" t="n">
-        <v>198.4847664818557</v>
+        <v>138.9439922470697</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R36" t="n">
-        <v>4.994812018996527</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S36" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T36" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H37" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I37" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J37" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K37" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L37" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M37" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N37" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O37" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P37" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R37" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S37" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T37" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H38" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I38" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J38" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K38" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L38" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M38" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N38" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O38" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P38" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R38" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S38" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T38" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U38" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H39" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J39" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K39" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L39" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M39" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N39" t="n">
-        <v>246.5838429844284</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O39" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.6818099978852</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R39" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S39" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T39" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H40" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I40" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J40" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K40" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L40" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M40" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O40" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P40" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R40" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S40" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T40" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H41" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I41" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J41" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K41" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L41" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M41" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N41" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O41" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P41" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R41" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S41" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T41" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H42" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J42" t="n">
-        <v>98.2029572967443</v>
+        <v>98.20295729674437</v>
       </c>
       <c r="K42" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M42" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N42" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P42" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978852</v>
+        <v>73.14103576309913</v>
       </c>
       <c r="R42" t="n">
-        <v>4.994812018996527</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S42" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T42" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H43" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I43" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J43" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K43" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L43" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M43" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N43" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O43" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P43" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R43" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S43" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T43" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.942680950074151</v>
+        <v>1.942680950074152</v>
       </c>
       <c r="H44" t="n">
-        <v>19.8954812799469</v>
+        <v>19.89548127994691</v>
       </c>
       <c r="I44" t="n">
-        <v>74.89520732773377</v>
+        <v>74.89520732773383</v>
       </c>
       <c r="J44" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K44" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L44" t="n">
-        <v>306.5696240288268</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M44" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N44" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O44" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P44" t="n">
-        <v>279.3599489718507</v>
+        <v>279.3599489718509</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.7876874473201</v>
+        <v>209.7876874473203</v>
       </c>
       <c r="R44" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300956</v>
       </c>
       <c r="S44" t="n">
-        <v>44.26884214981475</v>
+        <v>44.26884214981479</v>
       </c>
       <c r="T44" t="n">
-        <v>8.504085858949599</v>
+        <v>8.504085858949605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.155414476005932</v>
+        <v>0.1554144760059321</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.039425944183543</v>
+        <v>1.039425944183544</v>
       </c>
       <c r="H45" t="n">
         <v>10.03866635566738</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J45" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K45" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L45" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M45" t="n">
-        <v>263.3668280503652</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3373643164031</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O45" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584416</v>
       </c>
       <c r="P45" t="n">
-        <v>198.4847664818557</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.14103576310004</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R45" t="n">
-        <v>64.53558625378174</v>
+        <v>64.5355862537818</v>
       </c>
       <c r="S45" t="n">
-        <v>19.30688102463728</v>
+        <v>19.3068810246373</v>
       </c>
       <c r="T45" t="n">
-        <v>4.189615976774893</v>
+        <v>4.189615976774896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0683832858015489</v>
+        <v>0.06838328580154895</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8714197950230161</v>
+        <v>0.8714197950230167</v>
       </c>
       <c r="H46" t="n">
-        <v>7.747714177568277</v>
+        <v>7.747714177568282</v>
       </c>
       <c r="I46" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578309</v>
       </c>
       <c r="J46" t="n">
-        <v>61.60937950812724</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K46" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L46" t="n">
-        <v>129.5563575255128</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M46" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O46" t="n">
-        <v>123.1712270274351</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P46" t="n">
         <v>105.3942632089655</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.96952483597275</v>
+        <v>72.96952483597281</v>
       </c>
       <c r="R46" t="n">
-        <v>39.18220278348942</v>
+        <v>39.18220278348945</v>
       </c>
       <c r="S46" t="n">
-        <v>15.18647042781019</v>
+        <v>15.1864704278102</v>
       </c>
       <c r="T46" t="n">
-        <v>3.72333912418925</v>
+        <v>3.723339124189252</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0475319888194373</v>
+        <v>0.04753198881943733</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817464</v>
+        <v>0.9083906948817428</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
@@ -34947,10 +34947,10 @@
         <v>1.879326147397212</v>
       </c>
       <c r="N5" t="n">
-        <v>1.909735609237094</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O5" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P5" t="n">
         <v>1.53908266586976</v>
@@ -35017,13 +35017,13 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K6" t="n">
-        <v>1.922352039342192</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L6" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45097148431346</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N6" t="n">
         <v>1.489374382002836</v>
@@ -35032,13 +35032,13 @@
         <v>1.362486586628912</v>
       </c>
       <c r="P6" t="n">
-        <v>1.093515604709008</v>
+        <v>1.09351560470901</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.262548922260278</v>
+        <v>1.353190453639794</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3555470370770522</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K7" t="n">
         <v>0.55778058563772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7137671124819467</v>
+        <v>1.250859797854921</v>
       </c>
       <c r="M7" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N7" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O7" t="n">
-        <v>3.262548922260278</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P7" t="n">
         <v>0.5806504625449325</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9391049681827575</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829314</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154682</v>
+        <v>9.258389161154696</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419708</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>8.34828247275027</v>
       </c>
       <c r="P10" t="n">
-        <v>38.67269972973595</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>5.857395134976628</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>266.5900650540088</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>104.3035844648725</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35977,7 +35977,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>225.9035611675604</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>529.702499678237</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,25 +36284,25 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>189.7057400132685</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>425.0797619663501</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J23" t="n">
         <v>164.8826172863564</v>
       </c>
       <c r="K23" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029952</v>
       </c>
       <c r="L23" t="n">
-        <v>306.5696240288266</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M23" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O23" t="n">
         <v>327.3198849268065</v>
       </c>
       <c r="P23" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R23" t="n">
         <v>122.0319322300952</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J24" t="n">
-        <v>98.2029572967443</v>
+        <v>98.20295729674436</v>
       </c>
       <c r="K24" t="n">
-        <v>108.3037213222564</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L24" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M24" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N24" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O24" t="n">
-        <v>247.3058736584414</v>
+        <v>187.7650994236556</v>
       </c>
       <c r="P24" t="n">
         <v>198.4847664818558</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K25" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L25" t="n">
-        <v>551.9905815335543</v>
+        <v>332.2301639606482</v>
       </c>
       <c r="M25" t="n">
-        <v>600.7241322334847</v>
+        <v>600.7241322334849</v>
       </c>
       <c r="N25" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O25" t="n">
-        <v>547.0795595787297</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P25" t="n">
-        <v>244.9056819925777</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q25" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R25" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K26" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029952</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M26" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N26" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O26" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P26" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R26" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J27" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K27" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L27" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N27" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470706</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q27" t="n">
         <v>132.6818099978852</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K28" t="n">
-        <v>378.7769286814978</v>
+        <v>303.9169426205367</v>
       </c>
       <c r="L28" t="n">
-        <v>551.9905815335542</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M28" t="n">
-        <v>136.599013868926</v>
+        <v>600.7241322334849</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O28" t="n">
-        <v>352.2735478321435</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P28" t="n">
-        <v>456.4113278254722</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R28" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J29" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K29" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029952</v>
       </c>
       <c r="L29" t="n">
-        <v>306.5696240288266</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M29" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N29" t="n">
         <v>346.6374186241062</v>
       </c>
       <c r="O29" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P29" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R29" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J30" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K30" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L30" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M30" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N30" t="n">
-        <v>210.796590081618</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O30" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P30" t="n">
         <v>198.4847664818558</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>124.1492869827757</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K31" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L31" t="n">
-        <v>551.9905815335543</v>
+        <v>445.3382177086995</v>
       </c>
       <c r="M31" t="n">
-        <v>136.599013868926</v>
+        <v>136.5990138689261</v>
       </c>
       <c r="N31" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O31" t="n">
-        <v>547.0795595787295</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P31" t="n">
-        <v>456.4113278254722</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q31" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R31" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J32" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K32" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L32" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M32" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N32" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O32" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P32" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R32" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J33" t="n">
-        <v>38.66218306195904</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L33" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M33" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N33" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O33" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P33" t="n">
         <v>198.4847664818558</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.60937950812724</v>
+        <v>149.063606947208</v>
       </c>
       <c r="K34" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L34" t="n">
-        <v>332.2301639606466</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M34" t="n">
-        <v>600.7241322334847</v>
+        <v>600.7241322334849</v>
       </c>
       <c r="N34" t="n">
         <v>580.0770584285319</v>
@@ -37244,13 +37244,13 @@
         <v>547.0795595787295</v>
       </c>
       <c r="P34" t="n">
-        <v>105.3942632089656</v>
+        <v>220.6138422050203</v>
       </c>
       <c r="Q34" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R34" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J35" t="n">
         <v>164.8826172863562</v>
       </c>
       <c r="K35" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029952</v>
       </c>
       <c r="L35" t="n">
-        <v>306.5696240288268</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M35" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N35" t="n">
         <v>346.6374186241062</v>
       </c>
       <c r="O35" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P35" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R35" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78725290281058</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674432</v>
+        <v>98.20295729674436</v>
       </c>
       <c r="K36" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L36" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M36" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N36" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O36" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P36" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470697</v>
       </c>
       <c r="Q36" t="n">
         <v>132.6818099978852</v>
       </c>
       <c r="R36" t="n">
-        <v>4.994812018996527</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>61.60937950812723</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K37" t="n">
-        <v>101.2431361854013</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L37" t="n">
-        <v>332.2301639606462</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M37" t="n">
-        <v>600.7241322334847</v>
+        <v>600.7241322334849</v>
       </c>
       <c r="N37" t="n">
         <v>580.0770584285319</v>
@@ -37481,13 +37481,13 @@
         <v>547.0795595787295</v>
       </c>
       <c r="P37" t="n">
-        <v>105.3942632089656</v>
+        <v>308.0680696441004</v>
       </c>
       <c r="Q37" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R37" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J38" t="n">
         <v>164.8826172863562</v>
       </c>
       <c r="K38" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L38" t="n">
-        <v>306.5696240288268</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M38" t="n">
-        <v>341.1177763747079</v>
+        <v>341.1177763747081</v>
       </c>
       <c r="N38" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O38" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P38" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R38" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J39" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K39" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L39" t="n">
-        <v>225.6876375737119</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M39" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N39" t="n">
-        <v>246.5838429844284</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O39" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P39" t="n">
         <v>198.4847664818558</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812728</v>
       </c>
       <c r="K40" t="n">
-        <v>378.7769286814978</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L40" t="n">
-        <v>551.9905815335542</v>
+        <v>551.9905815335544</v>
       </c>
       <c r="M40" t="n">
-        <v>365.7013346736339</v>
+        <v>600.7241322334849</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O40" t="n">
-        <v>123.1712270274352</v>
+        <v>327.3191420058229</v>
       </c>
       <c r="P40" t="n">
-        <v>456.4113278254722</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R40" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J41" t="n">
-        <v>164.8826172863561</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K41" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029952</v>
       </c>
       <c r="L41" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288271</v>
       </c>
       <c r="M41" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N41" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O41" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P41" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R41" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J42" t="n">
-        <v>98.2029572967443</v>
+        <v>98.20295729674436</v>
       </c>
       <c r="K42" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M42" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N42" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P42" t="n">
         <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978852</v>
+        <v>73.14103576309913</v>
       </c>
       <c r="R42" t="n">
-        <v>4.994812018996527</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.0636069472079</v>
+        <v>149.063606947208</v>
       </c>
       <c r="K43" t="n">
-        <v>353.8626087170657</v>
+        <v>378.776928681498</v>
       </c>
       <c r="L43" t="n">
-        <v>551.9905815335543</v>
+        <v>551.9905815335544</v>
       </c>
       <c r="M43" t="n">
-        <v>136.599013868926</v>
+        <v>136.5990138689262</v>
       </c>
       <c r="N43" t="n">
         <v>133.3509946329314</v>
       </c>
       <c r="O43" t="n">
-        <v>547.0795595787295</v>
+        <v>352.2735478321445</v>
       </c>
       <c r="P43" t="n">
-        <v>456.4113278254722</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R43" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.48258584860237</v>
+        <v>74.48258584860243</v>
       </c>
       <c r="J44" t="n">
         <v>164.8826172863564</v>
       </c>
       <c r="K44" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L44" t="n">
-        <v>306.5696240288266</v>
+        <v>306.5696240288272</v>
       </c>
       <c r="M44" t="n">
         <v>341.117776374708</v>
       </c>
       <c r="N44" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O44" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268067</v>
       </c>
       <c r="P44" t="n">
-        <v>279.3599489718506</v>
+        <v>279.3599489718511</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.78768744732</v>
+        <v>209.7876874473204</v>
       </c>
       <c r="R44" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281061</v>
       </c>
       <c r="J45" t="n">
-        <v>98.2029572967443</v>
+        <v>38.66218306195825</v>
       </c>
       <c r="K45" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570418</v>
       </c>
       <c r="L45" t="n">
-        <v>225.6876375737118</v>
+        <v>225.687637573712</v>
       </c>
       <c r="M45" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503654</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164033</v>
       </c>
       <c r="O45" t="n">
-        <v>247.3058736584414</v>
+        <v>247.3058736584417</v>
       </c>
       <c r="P45" t="n">
         <v>198.4847664818558</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.14103576310004</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R45" t="n">
         <v>64.53558625378173</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.0636069472079</v>
+        <v>149.063606947208</v>
       </c>
       <c r="K46" t="n">
-        <v>101.2431361854013</v>
+        <v>378.776928681498</v>
       </c>
       <c r="L46" t="n">
-        <v>551.9905815335543</v>
+        <v>551.9905815335544</v>
       </c>
       <c r="M46" t="n">
-        <v>136.599013868926</v>
+        <v>136.5990138689262</v>
       </c>
       <c r="N46" t="n">
-        <v>580.0770584285318</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O46" t="n">
-        <v>547.0795595787295</v>
+        <v>352.2735478321445</v>
       </c>
       <c r="P46" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q46" t="n">
-        <v>229.8799981885431</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R46" t="n">
-        <v>17.97855970180759</v>
+        <v>17.97855970180762</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
